--- a/Testing Spreadsheet v1.0 ContactPage - Kevins Copy.xlsx
+++ b/Testing Spreadsheet v1.0 ContactPage - Kevins Copy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="175">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -413,45 +413,21 @@
     <t>4.1.1</t>
   </si>
   <si>
-    <t>To show that the company logo displays on the header of the About page</t>
-  </si>
-  <si>
-    <t>To show that the copyright and correct version information displays at the footer of the About page.</t>
-  </si>
-  <si>
     <t>4.1.2</t>
   </si>
   <si>
-    <t>To show that the correct page title displays on the About page</t>
-  </si>
-  <si>
     <t>4.1.4</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>To show there is a common navigational area on the About page</t>
-  </si>
-  <si>
     <t>4.1.7</t>
   </si>
   <si>
-    <t>To show that when the Home link is selected within the About page, the user is directed to the Home page</t>
-  </si>
-  <si>
     <t>4.1.8</t>
   </si>
   <si>
-    <t>To show that when Order is selected as a logged in user on the About page, the user is directed to the Order page.</t>
-  </si>
-  <si>
-    <t>To show that when Order is selected as a non-logged in user on the About page, the user is prevented from accessing the Order page</t>
-  </si>
-  <si>
-    <t>To show that when the Contact link is selected within the About page, the user is directed to the Contact page.</t>
-  </si>
-  <si>
     <t>4.1.5</t>
   </si>
   <si>
@@ -497,9 +473,6 @@
     <t>Check if the Contact page has a common navigational area</t>
   </si>
   <si>
-    <t>Check if the Contact page has an Contact title</t>
-  </si>
-  <si>
     <t>Check if the correct version information and copyright displays upon the Contact page's footer</t>
   </si>
   <si>
@@ -518,9 +491,6 @@
     <t>Check if the About page can be navigated to from the Contact page</t>
   </si>
   <si>
-    <t>Check if the Register and Log in pages can be directly navigated to from the Contact page as a non-logged in user</t>
-  </si>
-  <si>
     <t>Check if the My Account - reset password page can be directly navigated to from the Contact page as a logged in user</t>
   </si>
   <si>
@@ -530,66 +500,27 @@
     <t>Check if the "Contact" page does not allow direct access to the "Forgot password" page</t>
   </si>
   <si>
-    <t>While on the About page check if the company logo displays properly within the header</t>
-  </si>
-  <si>
     <t>Logo will be displayed correctly within the header</t>
   </si>
   <si>
-    <t>While on the About page check if the correct version infromation and copyright displays properly within the footer</t>
-  </si>
-  <si>
     <t>Version information and copyright will be displayed correctly within the footer</t>
   </si>
   <si>
-    <t>While on the About page check if the title is 'About'</t>
-  </si>
-  <si>
-    <t>Page title will be 'About'</t>
-  </si>
-  <si>
-    <t>While on the About page check if the page has a common navigational area</t>
-  </si>
-  <si>
-    <t>About page will have a common navigational area</t>
-  </si>
-  <si>
     <t>Check if the Contact page exists as part of the website</t>
   </si>
   <si>
-    <t>While on the website, check if the Contact page exists</t>
-  </si>
-  <si>
     <t>Contact page is accessible and displays when selected</t>
   </si>
   <si>
-    <t>While on the About page select the Home link</t>
-  </si>
-  <si>
     <t>User is directed to the Home page</t>
   </si>
   <si>
     <t>User is allowed access to Order page</t>
   </si>
   <si>
-    <t>While on the About page as a non-logged in user select the Order link.</t>
-  </si>
-  <si>
     <t>User is prevented access to the Order page</t>
   </si>
   <si>
-    <t>While on the About page select the Contact link</t>
-  </si>
-  <si>
-    <t>User is directed to the Contact page</t>
-  </si>
-  <si>
-    <t>Log in using a valid username and password, direct to the About page and then direct to the Order page.</t>
-  </si>
-  <si>
-    <t>While on the Contact page and not logged in, select the select the Register link</t>
-  </si>
-  <si>
     <t>User is directed to the Register page</t>
   </si>
   <si>
@@ -615,13 +546,226 @@
   </si>
   <si>
     <t>User is unable to access Forgot password</t>
+  </si>
+  <si>
+    <t>To show that the company logo displays on the header of the Contact page</t>
+  </si>
+  <si>
+    <t>To show there is a common navigational area on the Contact page</t>
+  </si>
+  <si>
+    <t>To show that when the Home link is selected within the Contact page, the user is directed to the Home page</t>
+  </si>
+  <si>
+    <t>To show that when Order is selected as a logged in user on the Contact page, the user is directed to the Order page.</t>
+  </si>
+  <si>
+    <t>To show that when Order is selected as a non-logged in user on the Contact page, the user is prevented from accessing the Order page</t>
+  </si>
+  <si>
+    <t>To show that when the About link is selected within the Contact page, the user is directed to the About page.</t>
+  </si>
+  <si>
+    <t>To show that the copyright and correct version information displays at the footer of the Contact page.</t>
+  </si>
+  <si>
+    <t>To show that the correct page title displays on the Contact page</t>
+  </si>
+  <si>
+    <t>While on the Contact page check if the company logo displays properly within the header</t>
+  </si>
+  <si>
+    <t>While on the Contact page check if the correct version infromation and copyright displays properly within the footer</t>
+  </si>
+  <si>
+    <t>While on the Contact page check if the title is 'Contact'</t>
+  </si>
+  <si>
+    <t>Page title will be 'Contact'</t>
+  </si>
+  <si>
+    <t>While on the website system, check if the Contact page exists</t>
+  </si>
+  <si>
+    <t>While on the Contact page check if the page has a common navigational area</t>
+  </si>
+  <si>
+    <t>Contact page will have a common navigational area</t>
+  </si>
+  <si>
+    <t>While on the Contact page select the Home link</t>
+  </si>
+  <si>
+    <t>Log in using a valid username and password, direct to the Contact page and then direct to the Order page.</t>
+  </si>
+  <si>
+    <t>While on the Contact page as a non-logged in user select the Order link.</t>
+  </si>
+  <si>
+    <t>While on the Contact page select the About link</t>
+  </si>
+  <si>
+    <t>User is directed to the About page</t>
+  </si>
+  <si>
+    <t>Kevin O'Hare</t>
+  </si>
+  <si>
+    <t>Check if the Contact page has Contact as a title</t>
+  </si>
+  <si>
+    <t>© 2015 - QUB CSC3056 CSC7056 Testing Site V1.0</t>
+  </si>
+  <si>
+    <t>Displayed but a copyright watermark is visible</t>
+  </si>
+  <si>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>While on the Contact page and not logged in, select the Register link</t>
+  </si>
+  <si>
+    <t>Fine, returned to Home page</t>
+  </si>
+  <si>
+    <t>No direct link to Forgot password as desired</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_5</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_6</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_7</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_8</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_9</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_10</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_11</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_12</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_13</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_14</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_15</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_16</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_17</t>
+  </si>
+  <si>
+    <t>Tcase_9</t>
+  </si>
+  <si>
+    <t>Tcase_10</t>
+  </si>
+  <si>
+    <t>Tcase_11</t>
+  </si>
+  <si>
+    <t>Tcase_12</t>
+  </si>
+  <si>
+    <t>Tcase_13</t>
+  </si>
+  <si>
+    <t>Tcase_14</t>
+  </si>
+  <si>
+    <t>Tcase_15</t>
+  </si>
+  <si>
+    <t>Tcase_16</t>
+  </si>
+  <si>
+    <t>Tcase_17</t>
+  </si>
+  <si>
+    <t>Tcase_18</t>
+  </si>
+  <si>
+    <t>Tcase_19</t>
+  </si>
+  <si>
+    <t>Tcase_20</t>
+  </si>
+  <si>
+    <t>Tcase_21</t>
+  </si>
+  <si>
+    <t>Tcase_22</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_9</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_10</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_11</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_12</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_13</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_14</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_15</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_16</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_17</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_18</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_19</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_20</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_21</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_22</t>
+  </si>
+  <si>
+    <t>Check if the Register page can be directly navigated to from the Contact page as a non-logged in user</t>
+  </si>
+  <si>
+    <t>Check if the Log in page can be directly navigated to from the Contact page as a non-logged in user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +853,12 @@
     </font>
     <font>
       <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -838,9 +988,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -887,6 +1034,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,6 +1094,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -955,6 +1104,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -964,6 +1114,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1002,7 +1153,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1028,6 +1179,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1069,7 +1221,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Test Cases'!$T$27:$T$31</c:f>
+              <c:f>'Test Cases'!$T$28:$T$32</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1092,7 +1244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Cases'!$U$27:$U$31</c:f>
+              <c:f>'Test Cases'!$U$28:$U$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1124,11 +1276,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="54712192"/>
-        <c:axId val="54713728"/>
+        <c:axId val="108871040"/>
+        <c:axId val="65148032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54712192"/>
+        <c:axId val="108871040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +1289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54713728"/>
+        <c:crossAx val="65148032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1145,7 +1297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54713728"/>
+        <c:axId val="65148032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54712192"/>
+        <c:crossAx val="108871040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1185,7 +1337,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>351367</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1209,13 +1361,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>325966</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1585,35 +1737,37 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>58</v>
@@ -1626,12 +1780,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1639,27 +1795,31 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1669,24 +1829,28 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -1696,12 +1860,14 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -1711,12 +1877,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
@@ -1726,52 +1894,64 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1804,10 +1984,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Z162"/>
+  <dimension ref="A1:Z163"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,69 +2010,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27.95" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="12"/>
+      <c r="G2" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1905,20 +2093,29 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1926,26 +2123,34 @@
       <c r="N3" s="3"/>
       <c r="O3" s="9"/>
       <c r="P3" s="10"/>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="14"/>
+      <c r="G4" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1958,21 +2163,29 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1983,21 +2196,29 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="14"/>
+      <c r="G6" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -2007,21 +2228,29 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="14"/>
+      <c r="G7" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -2031,21 +2260,29 @@
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:26" ht="57" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="14"/>
+      <c r="G8" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -2058,21 +2295,29 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="10"/>
+      <c r="G9" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J9" s="10"/>
       <c r="K9" s="4"/>
       <c r="L9" s="10"/>
@@ -2083,27 +2328,35 @@
       <c r="T9" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="32">
-        <f>COUNTIF(H2:H91,"*Passed*")</f>
-        <v>0</v>
+      <c r="U9" s="31">
+        <f>COUNTIF(H2:H92,"*Passed*")</f>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="10"/>
+      <c r="G10" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="4"/>
       <c r="L10" s="10"/>
@@ -2114,26 +2367,35 @@
       <c r="T10" t="s">
         <v>25</v>
       </c>
-      <c r="U10" s="32">
-        <f>COUNTIF(H3:H91,"*Failed*")</f>
+      <c r="U10" s="31">
+        <f>COUNTIF(H3:H92,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="10"/>
+      <c r="G11" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="10"/>
@@ -2144,26 +2406,35 @@
       <c r="T11" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="32">
-        <f>COUNTIF(H4:H91,"*Not*")</f>
+      <c r="U11" s="31">
+        <f>COUNTIF(H4:H92,"*Not*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>95</v>
+    <row r="12" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="10"/>
+      <c r="G12" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J12" s="10"/>
       <c r="K12" s="4"/>
       <c r="L12" s="10"/>
@@ -2171,45 +2442,64 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="U12" s="31"/>
+    </row>
+    <row r="13" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="10"/>
+      <c r="G13" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="10"/>
+      <c r="G14" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -2218,12 +2508,30 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="10"/>
+      <c r="G15" s="13">
+        <v>42108</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -2236,7 +2544,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="27"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2250,7 +2558,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="27"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2264,7 +2572,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="27"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -2278,7 +2586,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="27"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -2292,7 +2600,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="27"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -2306,7 +2614,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="27"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -2320,7 +2628,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="27"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -2334,7 +2642,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="27"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -2344,11 +2652,11 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="27"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -2362,7 +2670,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="27"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -2376,7 +2684,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="27"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -2385,15 +2693,12 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
-      <c r="T26" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="27" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="27"/>
+      <c r="H27" s="26"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -2403,18 +2708,14 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="T27" t="s">
-        <v>34</v>
-      </c>
-      <c r="U27" s="32">
-        <f>COUNTIF(L2:L51,"*Minor*")</f>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="27"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2424,10 +2725,10 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="T28" t="s">
-        <v>57</v>
-      </c>
-      <c r="U28" s="32">
-        <f>COUNTIF(L2:L8,"*Moderate*")</f>
+        <v>34</v>
+      </c>
+      <c r="U28" s="31">
+        <f>COUNTIF(L2:L52,"*Minor*")</f>
         <v>0</v>
       </c>
     </row>
@@ -2435,7 +2736,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="27"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -2445,10 +2746,10 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="T29" t="s">
-        <v>35</v>
-      </c>
-      <c r="U29" s="32">
-        <f>COUNTIF(L2:L8,"*Major*")</f>
+        <v>57</v>
+      </c>
+      <c r="U29" s="31">
+        <f>COUNTIF(L2:L8,"*Moderate*")</f>
         <v>0</v>
       </c>
     </row>
@@ -2456,7 +2757,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="27"/>
+      <c r="H30" s="26"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -2466,10 +2767,10 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="T30" t="s">
-        <v>36</v>
-      </c>
-      <c r="U30" s="32">
-        <f>COUNTIF(L2:L8,"*Critical*")</f>
+        <v>35</v>
+      </c>
+      <c r="U30" s="31">
+        <f>COUNTIF(L2:L8,"*Major*")</f>
         <v>0</v>
       </c>
     </row>
@@ -2477,7 +2778,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="27"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -2487,10 +2788,10 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="T31" t="s">
-        <v>38</v>
-      </c>
-      <c r="U31" s="32">
-        <f>COUNTIF(L2:L8,"*Cometic*")</f>
+        <v>36</v>
+      </c>
+      <c r="U31" s="31">
+        <f>COUNTIF(L2:L8,"*Critical*")</f>
         <v>0</v>
       </c>
     </row>
@@ -2498,7 +2799,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="27"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -2507,12 +2808,19 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
+      <c r="T32" t="s">
+        <v>38</v>
+      </c>
+      <c r="U32" s="31">
+        <f>COUNTIF(L2:L8,"*Cometic*")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="27"/>
+      <c r="H33" s="26"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -2526,7 +2834,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="27"/>
+      <c r="H34" s="26"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
@@ -2540,7 +2848,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="27"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -2554,7 +2862,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="27"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -2568,7 +2876,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="27"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -2582,7 +2890,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="11"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="27"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -2596,7 +2904,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="27"/>
+      <c r="H39" s="26"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
@@ -2610,7 +2918,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="27"/>
+      <c r="H40" s="26"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -2624,7 +2932,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="27"/>
+      <c r="H41" s="26"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
@@ -2638,7 +2946,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="11"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="27"/>
+      <c r="H42" s="26"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -2652,7 +2960,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="27"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -2666,7 +2974,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="27"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -2680,7 +2988,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="27"/>
+      <c r="H45" s="26"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -2694,7 +3002,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="11"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="27"/>
+      <c r="H46" s="26"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -2708,7 +3016,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="27"/>
+      <c r="H47" s="26"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -2722,7 +3030,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="11"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="27"/>
+      <c r="H48" s="26"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -2736,7 +3044,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="27"/>
+      <c r="H49" s="26"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -2750,7 +3058,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="27"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
@@ -2764,7 +3072,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="11"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="27"/>
+      <c r="H51" s="26"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
@@ -2778,7 +3086,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="27"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -2792,7 +3100,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="11"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="27"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
@@ -2806,7 +3114,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="27"/>
+      <c r="H54" s="26"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -2820,7 +3128,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="27"/>
+      <c r="H55" s="26"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
@@ -2834,7 +3142,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="27"/>
+      <c r="H56" s="26"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -2848,7 +3156,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="11"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="27"/>
+      <c r="H57" s="26"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
@@ -2862,7 +3170,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="11"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="27"/>
+      <c r="H58" s="26"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -2876,7 +3184,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="11"/>
       <c r="G59" s="10"/>
-      <c r="H59" s="27"/>
+      <c r="H59" s="26"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -2890,7 +3198,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="11"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="27"/>
+      <c r="H60" s="26"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
@@ -2904,7 +3212,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="11"/>
       <c r="G61" s="10"/>
-      <c r="H61" s="27"/>
+      <c r="H61" s="26"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -2918,7 +3226,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="11"/>
       <c r="G62" s="10"/>
-      <c r="H62" s="27"/>
+      <c r="H62" s="26"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
@@ -2932,7 +3240,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="27"/>
+      <c r="H63" s="26"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
@@ -2946,7 +3254,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="11"/>
       <c r="G64" s="10"/>
-      <c r="H64" s="27"/>
+      <c r="H64" s="26"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
@@ -2960,7 +3268,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="11"/>
       <c r="G65" s="10"/>
-      <c r="H65" s="27"/>
+      <c r="H65" s="26"/>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
@@ -2974,7 +3282,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="11"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="27"/>
+      <c r="H66" s="26"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
@@ -2988,7 +3296,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="11"/>
       <c r="G67" s="10"/>
-      <c r="H67" s="27"/>
+      <c r="H67" s="26"/>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
@@ -3002,7 +3310,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="27"/>
+      <c r="H68" s="26"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
@@ -3016,7 +3324,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="11"/>
       <c r="G69" s="10"/>
-      <c r="H69" s="27"/>
+      <c r="H69" s="26"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
@@ -3030,7 +3338,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="11"/>
       <c r="G70" s="10"/>
-      <c r="H70" s="27"/>
+      <c r="H70" s="26"/>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
@@ -3044,7 +3352,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="11"/>
       <c r="G71" s="10"/>
-      <c r="H71" s="27"/>
+      <c r="H71" s="26"/>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
@@ -3058,7 +3366,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="11"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="27"/>
+      <c r="H72" s="26"/>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -3072,7 +3380,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
       <c r="G73" s="10"/>
-      <c r="H73" s="27"/>
+      <c r="H73" s="26"/>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
@@ -3086,7 +3394,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="11"/>
       <c r="G74" s="10"/>
-      <c r="H74" s="27"/>
+      <c r="H74" s="26"/>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
@@ -3100,7 +3408,7 @@
       <c r="E75" s="10"/>
       <c r="F75" s="11"/>
       <c r="G75" s="10"/>
-      <c r="H75" s="27"/>
+      <c r="H75" s="26"/>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
@@ -3114,7 +3422,7 @@
       <c r="E76" s="10"/>
       <c r="F76" s="11"/>
       <c r="G76" s="10"/>
-      <c r="H76" s="27"/>
+      <c r="H76" s="26"/>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
@@ -3128,7 +3436,7 @@
       <c r="E77" s="10"/>
       <c r="F77" s="11"/>
       <c r="G77" s="10"/>
-      <c r="H77" s="27"/>
+      <c r="H77" s="26"/>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
@@ -3142,7 +3450,7 @@
       <c r="E78" s="10"/>
       <c r="F78" s="11"/>
       <c r="G78" s="10"/>
-      <c r="H78" s="27"/>
+      <c r="H78" s="26"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
@@ -3156,7 +3464,7 @@
       <c r="E79" s="10"/>
       <c r="F79" s="11"/>
       <c r="G79" s="10"/>
-      <c r="H79" s="27"/>
+      <c r="H79" s="26"/>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
@@ -3170,7 +3478,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="11"/>
       <c r="G80" s="10"/>
-      <c r="H80" s="27"/>
+      <c r="H80" s="26"/>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
@@ -3184,7 +3492,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="11"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="27"/>
+      <c r="H81" s="26"/>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
@@ -3198,7 +3506,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="11"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="27"/>
+      <c r="H82" s="26"/>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -3212,7 +3520,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="11"/>
       <c r="G83" s="10"/>
-      <c r="H83" s="27"/>
+      <c r="H83" s="26"/>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
@@ -3226,7 +3534,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="11"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="27"/>
+      <c r="H84" s="26"/>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
@@ -3240,7 +3548,7 @@
       <c r="E85" s="10"/>
       <c r="F85" s="11"/>
       <c r="G85" s="10"/>
-      <c r="H85" s="27"/>
+      <c r="H85" s="26"/>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
@@ -3254,7 +3562,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="11"/>
       <c r="G86" s="10"/>
-      <c r="H86" s="27"/>
+      <c r="H86" s="26"/>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
@@ -3268,7 +3576,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="11"/>
       <c r="G87" s="10"/>
-      <c r="H87" s="27"/>
+      <c r="H87" s="26"/>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
@@ -3282,7 +3590,7 @@
       <c r="E88" s="10"/>
       <c r="F88" s="11"/>
       <c r="G88" s="10"/>
-      <c r="H88" s="27"/>
+      <c r="H88" s="26"/>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
@@ -3296,7 +3604,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="11"/>
       <c r="G89" s="10"/>
-      <c r="H89" s="27"/>
+      <c r="H89" s="26"/>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
@@ -3310,7 +3618,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="11"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="27"/>
+      <c r="H90" s="26"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
@@ -3324,7 +3632,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="11"/>
       <c r="G91" s="10"/>
-      <c r="H91" s="27"/>
+      <c r="H91" s="26"/>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -3338,7 +3646,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="11"/>
       <c r="G92" s="10"/>
-      <c r="H92" s="27"/>
+      <c r="H92" s="26"/>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
@@ -3352,7 +3660,7 @@
       <c r="E93" s="10"/>
       <c r="F93" s="11"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="27"/>
+      <c r="H93" s="26"/>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
@@ -3366,7 +3674,7 @@
       <c r="E94" s="10"/>
       <c r="F94" s="11"/>
       <c r="G94" s="10"/>
-      <c r="H94" s="27"/>
+      <c r="H94" s="26"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
@@ -3380,7 +3688,7 @@
       <c r="E95" s="10"/>
       <c r="F95" s="11"/>
       <c r="G95" s="10"/>
-      <c r="H95" s="27"/>
+      <c r="H95" s="26"/>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
@@ -3394,7 +3702,7 @@
       <c r="E96" s="10"/>
       <c r="F96" s="11"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="27"/>
+      <c r="H96" s="26"/>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
@@ -3408,7 +3716,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="11"/>
       <c r="G97" s="10"/>
-      <c r="H97" s="27"/>
+      <c r="H97" s="26"/>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
@@ -3422,7 +3730,7 @@
       <c r="E98" s="10"/>
       <c r="F98" s="11"/>
       <c r="G98" s="10"/>
-      <c r="H98" s="27"/>
+      <c r="H98" s="26"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -3436,7 +3744,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="11"/>
       <c r="G99" s="10"/>
-      <c r="H99" s="27"/>
+      <c r="H99" s="26"/>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
@@ -3450,7 +3758,7 @@
       <c r="E100" s="10"/>
       <c r="F100" s="11"/>
       <c r="G100" s="10"/>
-      <c r="H100" s="27"/>
+      <c r="H100" s="26"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -3464,7 +3772,7 @@
       <c r="E101" s="10"/>
       <c r="F101" s="11"/>
       <c r="G101" s="10"/>
-      <c r="H101" s="27"/>
+      <c r="H101" s="26"/>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
@@ -3478,7 +3786,7 @@
       <c r="E102" s="10"/>
       <c r="F102" s="11"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="27"/>
+      <c r="H102" s="26"/>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
@@ -3492,7 +3800,7 @@
       <c r="E103" s="10"/>
       <c r="F103" s="11"/>
       <c r="G103" s="10"/>
-      <c r="H103" s="27"/>
+      <c r="H103" s="26"/>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
@@ -3506,7 +3814,7 @@
       <c r="E104" s="10"/>
       <c r="F104" s="11"/>
       <c r="G104" s="10"/>
-      <c r="H104" s="27"/>
+      <c r="H104" s="26"/>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
@@ -3520,7 +3828,7 @@
       <c r="E105" s="10"/>
       <c r="F105" s="11"/>
       <c r="G105" s="10"/>
-      <c r="H105" s="27"/>
+      <c r="H105" s="26"/>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
@@ -3534,7 +3842,7 @@
       <c r="E106" s="10"/>
       <c r="F106" s="11"/>
       <c r="G106" s="10"/>
-      <c r="H106" s="27"/>
+      <c r="H106" s="26"/>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
@@ -3548,7 +3856,7 @@
       <c r="E107" s="10"/>
       <c r="F107" s="11"/>
       <c r="G107" s="10"/>
-      <c r="H107" s="27"/>
+      <c r="H107" s="26"/>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
@@ -3562,7 +3870,7 @@
       <c r="E108" s="10"/>
       <c r="F108" s="11"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="27"/>
+      <c r="H108" s="26"/>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
@@ -3576,7 +3884,7 @@
       <c r="E109" s="10"/>
       <c r="F109" s="11"/>
       <c r="G109" s="10"/>
-      <c r="H109" s="27"/>
+      <c r="H109" s="26"/>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
@@ -3590,7 +3898,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="11"/>
       <c r="G110" s="10"/>
-      <c r="H110" s="27"/>
+      <c r="H110" s="26"/>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
@@ -3604,7 +3912,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="11"/>
       <c r="G111" s="10"/>
-      <c r="H111" s="27"/>
+      <c r="H111" s="26"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
       <c r="K111" s="10"/>
@@ -3618,7 +3926,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="11"/>
       <c r="G112" s="10"/>
-      <c r="H112" s="27"/>
+      <c r="H112" s="26"/>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
@@ -3632,7 +3940,7 @@
       <c r="E113" s="10"/>
       <c r="F113" s="11"/>
       <c r="G113" s="10"/>
-      <c r="H113" s="27"/>
+      <c r="H113" s="26"/>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
@@ -3646,7 +3954,7 @@
       <c r="E114" s="10"/>
       <c r="F114" s="11"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="27"/>
+      <c r="H114" s="26"/>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
@@ -3660,7 +3968,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="11"/>
       <c r="G115" s="10"/>
-      <c r="H115" s="27"/>
+      <c r="H115" s="26"/>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
@@ -3674,7 +3982,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="11"/>
       <c r="G116" s="10"/>
-      <c r="H116" s="27"/>
+      <c r="H116" s="26"/>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
       <c r="K116" s="10"/>
@@ -3688,7 +3996,7 @@
       <c r="E117" s="10"/>
       <c r="F117" s="11"/>
       <c r="G117" s="10"/>
-      <c r="H117" s="27"/>
+      <c r="H117" s="26"/>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
@@ -3702,7 +4010,7 @@
       <c r="E118" s="10"/>
       <c r="F118" s="11"/>
       <c r="G118" s="10"/>
-      <c r="H118" s="27"/>
+      <c r="H118" s="26"/>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
@@ -3716,7 +4024,7 @@
       <c r="E119" s="10"/>
       <c r="F119" s="11"/>
       <c r="G119" s="10"/>
-      <c r="H119" s="27"/>
+      <c r="H119" s="26"/>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
       <c r="K119" s="10"/>
@@ -3730,7 +4038,7 @@
       <c r="E120" s="10"/>
       <c r="F120" s="11"/>
       <c r="G120" s="10"/>
-      <c r="H120" s="27"/>
+      <c r="H120" s="26"/>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
@@ -3744,7 +4052,7 @@
       <c r="E121" s="10"/>
       <c r="F121" s="11"/>
       <c r="G121" s="10"/>
-      <c r="H121" s="27"/>
+      <c r="H121" s="26"/>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
@@ -3758,7 +4066,7 @@
       <c r="E122" s="10"/>
       <c r="F122" s="11"/>
       <c r="G122" s="10"/>
-      <c r="H122" s="27"/>
+      <c r="H122" s="26"/>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
       <c r="K122" s="10"/>
@@ -3772,7 +4080,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="11"/>
       <c r="G123" s="10"/>
-      <c r="H123" s="27"/>
+      <c r="H123" s="26"/>
       <c r="I123" s="10"/>
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
@@ -3786,7 +4094,7 @@
       <c r="E124" s="10"/>
       <c r="F124" s="11"/>
       <c r="G124" s="10"/>
-      <c r="H124" s="27"/>
+      <c r="H124" s="26"/>
       <c r="I124" s="10"/>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
@@ -3800,7 +4108,7 @@
       <c r="E125" s="10"/>
       <c r="F125" s="11"/>
       <c r="G125" s="10"/>
-      <c r="H125" s="27"/>
+      <c r="H125" s="26"/>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
       <c r="K125" s="10"/>
@@ -3814,7 +4122,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="11"/>
       <c r="G126" s="10"/>
-      <c r="H126" s="27"/>
+      <c r="H126" s="26"/>
       <c r="I126" s="10"/>
       <c r="J126" s="10"/>
       <c r="K126" s="10"/>
@@ -3828,7 +4136,7 @@
       <c r="E127" s="10"/>
       <c r="F127" s="11"/>
       <c r="G127" s="10"/>
-      <c r="H127" s="27"/>
+      <c r="H127" s="26"/>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
       <c r="K127" s="10"/>
@@ -3842,7 +4150,7 @@
       <c r="E128" s="10"/>
       <c r="F128" s="11"/>
       <c r="G128" s="10"/>
-      <c r="H128" s="27"/>
+      <c r="H128" s="26"/>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
       <c r="K128" s="10"/>
@@ -3856,7 +4164,7 @@
       <c r="E129" s="10"/>
       <c r="F129" s="11"/>
       <c r="G129" s="10"/>
-      <c r="H129" s="27"/>
+      <c r="H129" s="26"/>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
       <c r="K129" s="10"/>
@@ -3870,7 +4178,7 @@
       <c r="E130" s="10"/>
       <c r="F130" s="11"/>
       <c r="G130" s="10"/>
-      <c r="H130" s="27"/>
+      <c r="H130" s="26"/>
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
       <c r="K130" s="10"/>
@@ -3884,7 +4192,7 @@
       <c r="E131" s="10"/>
       <c r="F131" s="11"/>
       <c r="G131" s="10"/>
-      <c r="H131" s="27"/>
+      <c r="H131" s="26"/>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
       <c r="K131" s="10"/>
@@ -3898,7 +4206,7 @@
       <c r="E132" s="10"/>
       <c r="F132" s="11"/>
       <c r="G132" s="10"/>
-      <c r="H132" s="27"/>
+      <c r="H132" s="26"/>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
       <c r="K132" s="10"/>
@@ -3912,7 +4220,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="11"/>
       <c r="G133" s="10"/>
-      <c r="H133" s="27"/>
+      <c r="H133" s="26"/>
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -3926,7 +4234,7 @@
       <c r="E134" s="10"/>
       <c r="F134" s="11"/>
       <c r="G134" s="10"/>
-      <c r="H134" s="27"/>
+      <c r="H134" s="26"/>
       <c r="I134" s="10"/>
       <c r="J134" s="10"/>
       <c r="K134" s="10"/>
@@ -3940,7 +4248,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="11"/>
       <c r="G135" s="10"/>
-      <c r="H135" s="27"/>
+      <c r="H135" s="26"/>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
       <c r="K135" s="10"/>
@@ -3954,7 +4262,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="11"/>
       <c r="G136" s="10"/>
-      <c r="H136" s="27"/>
+      <c r="H136" s="26"/>
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
@@ -3968,7 +4276,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="11"/>
       <c r="G137" s="10"/>
-      <c r="H137" s="27"/>
+      <c r="H137" s="26"/>
       <c r="I137" s="10"/>
       <c r="J137" s="10"/>
       <c r="K137" s="10"/>
@@ -3982,7 +4290,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="11"/>
       <c r="G138" s="10"/>
-      <c r="H138" s="27"/>
+      <c r="H138" s="26"/>
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
       <c r="K138" s="10"/>
@@ -3996,7 +4304,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="11"/>
       <c r="G139" s="10"/>
-      <c r="H139" s="27"/>
+      <c r="H139" s="26"/>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
@@ -4010,7 +4318,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="11"/>
       <c r="G140" s="10"/>
-      <c r="H140" s="27"/>
+      <c r="H140" s="26"/>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
       <c r="K140" s="10"/>
@@ -4024,7 +4332,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="11"/>
       <c r="G141" s="10"/>
-      <c r="H141" s="27"/>
+      <c r="H141" s="26"/>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
       <c r="K141" s="10"/>
@@ -4038,7 +4346,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="11"/>
       <c r="G142" s="10"/>
-      <c r="H142" s="27"/>
+      <c r="H142" s="26"/>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
       <c r="K142" s="10"/>
@@ -4052,7 +4360,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="11"/>
       <c r="G143" s="10"/>
-      <c r="H143" s="27"/>
+      <c r="H143" s="26"/>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
       <c r="K143" s="10"/>
@@ -4066,7 +4374,7 @@
       <c r="E144" s="10"/>
       <c r="F144" s="11"/>
       <c r="G144" s="10"/>
-      <c r="H144" s="27"/>
+      <c r="H144" s="26"/>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
       <c r="K144" s="10"/>
@@ -4080,7 +4388,7 @@
       <c r="E145" s="10"/>
       <c r="F145" s="11"/>
       <c r="G145" s="10"/>
-      <c r="H145" s="27"/>
+      <c r="H145" s="26"/>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
       <c r="K145" s="10"/>
@@ -4094,7 +4402,7 @@
       <c r="E146" s="10"/>
       <c r="F146" s="11"/>
       <c r="G146" s="10"/>
-      <c r="H146" s="27"/>
+      <c r="H146" s="26"/>
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
       <c r="K146" s="10"/>
@@ -4108,7 +4416,7 @@
       <c r="E147" s="10"/>
       <c r="F147" s="11"/>
       <c r="G147" s="10"/>
-      <c r="H147" s="27"/>
+      <c r="H147" s="26"/>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
       <c r="K147" s="10"/>
@@ -4122,7 +4430,7 @@
       <c r="E148" s="10"/>
       <c r="F148" s="11"/>
       <c r="G148" s="10"/>
-      <c r="H148" s="27"/>
+      <c r="H148" s="26"/>
       <c r="I148" s="10"/>
       <c r="J148" s="10"/>
       <c r="K148" s="10"/>
@@ -4136,7 +4444,7 @@
       <c r="E149" s="10"/>
       <c r="F149" s="11"/>
       <c r="G149" s="10"/>
-      <c r="H149" s="27"/>
+      <c r="H149" s="26"/>
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
       <c r="K149" s="10"/>
@@ -4150,7 +4458,7 @@
       <c r="E150" s="10"/>
       <c r="F150" s="11"/>
       <c r="G150" s="10"/>
-      <c r="H150" s="27"/>
+      <c r="H150" s="26"/>
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
       <c r="K150" s="10"/>
@@ -4164,7 +4472,7 @@
       <c r="E151" s="10"/>
       <c r="F151" s="11"/>
       <c r="G151" s="10"/>
-      <c r="H151" s="27"/>
+      <c r="H151" s="26"/>
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
       <c r="K151" s="10"/>
@@ -4178,7 +4486,7 @@
       <c r="E152" s="10"/>
       <c r="F152" s="11"/>
       <c r="G152" s="10"/>
-      <c r="H152" s="27"/>
+      <c r="H152" s="26"/>
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
       <c r="K152" s="10"/>
@@ -4192,7 +4500,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="11"/>
       <c r="G153" s="10"/>
-      <c r="H153" s="27"/>
+      <c r="H153" s="26"/>
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
@@ -4206,7 +4514,7 @@
       <c r="E154" s="10"/>
       <c r="F154" s="11"/>
       <c r="G154" s="10"/>
-      <c r="H154" s="27"/>
+      <c r="H154" s="26"/>
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
@@ -4220,7 +4528,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="11"/>
       <c r="G155" s="10"/>
-      <c r="H155" s="27"/>
+      <c r="H155" s="26"/>
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
       <c r="K155" s="10"/>
@@ -4234,7 +4542,7 @@
       <c r="E156" s="10"/>
       <c r="F156" s="11"/>
       <c r="G156" s="10"/>
-      <c r="H156" s="27"/>
+      <c r="H156" s="26"/>
       <c r="I156" s="10"/>
       <c r="J156" s="10"/>
       <c r="K156" s="10"/>
@@ -4248,7 +4556,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="11"/>
       <c r="G157" s="10"/>
-      <c r="H157" s="27"/>
+      <c r="H157" s="26"/>
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
       <c r="K157" s="10"/>
@@ -4262,7 +4570,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="11"/>
       <c r="G158" s="10"/>
-      <c r="H158" s="27"/>
+      <c r="H158" s="26"/>
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
       <c r="K158" s="10"/>
@@ -4276,7 +4584,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="11"/>
       <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
+      <c r="H159" s="26"/>
       <c r="I159" s="10"/>
       <c r="J159" s="10"/>
       <c r="K159" s="10"/>
@@ -4302,7 +4610,7 @@
     </row>
     <row r="161" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
+      <c r="F161" s="11"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
@@ -4328,10 +4636,24 @@
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
     </row>
+    <row r="163" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="10"/>
+      <c r="K163" s="10"/>
+      <c r="L163" s="10"/>
+      <c r="M163" s="10"/>
+      <c r="N163" s="10"/>
+      <c r="O163" s="10"/>
+      <c r="P163" s="10"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H45:H160">
+  <conditionalFormatting sqref="H46:H161">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Passed ">
-      <formula>NOT(ISERROR(SEARCH("Passed ",H45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed ",H46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4345,13 +4667,13 @@
           <x14:formula1>
             <xm:f>Settings!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H44</xm:sqref>
+          <xm:sqref>H2:H45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F160</xm:sqref>
+          <xm:sqref>F2:F161</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4363,7 +4685,7 @@
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K12</xm:sqref>
+          <xm:sqref>K2:K13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4378,34 +4700,35 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="5" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1"/>
@@ -4419,17 +4742,23 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F2" s="1"/>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>52</v>
       </c>
       <c r="I2" s="1"/>
@@ -4439,15 +4768,21 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>126</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4458,15 +4793,21 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4477,15 +4818,21 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -4496,15 +4843,21 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4515,15 +4868,21 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4534,15 +4893,21 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4553,15 +4918,21 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4572,15 +4943,21 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4590,16 +4967,22 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4610,15 +4993,21 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -4629,15 +5018,21 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4648,15 +5043,21 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4667,15 +5068,21 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4685,7 +5092,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4700,7 +5107,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4715,7 +5122,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4730,7 +5137,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4745,7 +5152,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4762,6 +5169,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4795,7 +5203,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
@@ -4809,7 +5217,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
@@ -4823,7 +5231,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
@@ -4852,21 +5260,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -4980,10 +5373,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -4998,16 +5413,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Testing Spreadsheet v1.0 ContactPage - Kevins Copy.xlsx
+++ b/Testing Spreadsheet v1.0 ContactPage - Kevins Copy.xlsx
@@ -1094,7 +1094,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1104,7 +1103,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1114,7 +1112,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1179,7 +1176,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1276,11 +1272,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108871040"/>
-        <c:axId val="65148032"/>
+        <c:axId val="42246912"/>
+        <c:axId val="42248448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108871040"/>
+        <c:axId val="42246912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65148032"/>
+        <c:crossAx val="42248448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1297,7 +1293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65148032"/>
+        <c:axId val="42248448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108871040"/>
+        <c:crossAx val="42246912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1737,13 +1733,13 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
@@ -1986,8 +1982,8 @@
   </sheetPr>
   <dimension ref="A1:Z163"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,7 +2536,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="10"/>
@@ -2554,7 +2550,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="10"/>
@@ -2568,7 +2564,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="10"/>
@@ -2582,7 +2578,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="10"/>
@@ -2596,7 +2592,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="10"/>
@@ -2610,7 +2606,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="10"/>
@@ -2624,7 +2620,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="10"/>
@@ -2638,7 +2634,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="10"/>
@@ -2652,7 +2648,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="10"/>
@@ -4700,8 +4696,8 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5260,6 +5256,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -5373,32 +5384,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -5413,9 +5402,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
